--- a/lsdp_initiatives.xlsx
+++ b/lsdp_initiatives.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anaconda3\LSDP-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1822EA2D-E5B4-416D-82D6-9E019BB91FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E36F7C-E0DF-4A5C-8A2F-C63FF182D976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3137" uniqueCount="978">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3137" uniqueCount="975">
   <si>
     <t>SN</t>
   </si>
@@ -802,9 +802,6 @@
     <t>Adapt legislation to remove barriers to digitization of Health processes and records</t>
   </si>
   <si>
-    <t xml:space="preserve">Regulation And Policies </t>
-  </si>
-  <si>
     <t>NT/2/2/3</t>
   </si>
   <si>
@@ -821,9 +818,6 @@
   </si>
   <si>
     <t>Boost enrolmeNTof Lagos State residents in the Lagos Health Insurance Scheme (e.g., by investing in grassroot advocacy and collaborating with community leaders) and accelerate insurance re-imbursemeNTprocess</t>
-  </si>
-  <si>
-    <t>Partnerships And Network Support</t>
   </si>
   <si>
     <t>NT/2/2/6</t>
@@ -1861,9 +1855,6 @@
   </si>
   <si>
     <t>Build residential buildings on governmeNTreal asset (land) at proposed new urban centres</t>
-  </si>
-  <si>
-    <t>investments</t>
   </si>
   <si>
     <t>NT/4/3/74</t>
@@ -3100,7 +3091,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3138,66 +3129,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9E2F3"/>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3493,6 +3424,66 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9E2F3"/>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFB4C6E7"/>
@@ -3528,17 +3519,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4FE115ED-FB97-40E2-997D-64ED0779E692}" name="Table1" displayName="Table1" ref="A1:H448" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4FE115ED-FB97-40E2-997D-64ED0779E692}" name="Table1" displayName="Table1" ref="A1:H448" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:H448" xr:uid="{4FE115ED-FB97-40E2-997D-64ED0779E692}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{E0FBB130-789F-476F-9E3B-6648A8F1630F}" name="SN" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{13073808-1F2C-4031-B5CD-415FE0C7CF19}" name="LSDP INTIATIVES CODE" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{C2613BFF-86DC-4E6B-9FA0-5012B624F08C}" name="INITIATIVES" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{C133807F-D143-4A5F-80A1-8D8DB4B3F0CC}" name="DIMENSION" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{987C6DB1-F9EA-42B7-98DD-625871B91730}" name="FOCUS AREA" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{428B5921-B4BD-4F96-B294-7915DE7994C4}" name="INITIATIVE TYPE" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{B5038176-6BB5-47EB-B4BF-43BC57248417}" name="TIMELINE" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{2ED1FA0D-E0DC-4A37-8EAF-16347142A1FE}" name="LEAD MDA" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{E0FBB130-789F-476F-9E3B-6648A8F1630F}" name="SN" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{13073808-1F2C-4031-B5CD-415FE0C7CF19}" name="LSDP INTIATIVES CODE" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{C2613BFF-86DC-4E6B-9FA0-5012B624F08C}" name="INITIATIVES" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{C133807F-D143-4A5F-80A1-8D8DB4B3F0CC}" name="DIMENSION" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{987C6DB1-F9EA-42B7-98DD-625871B91730}" name="FOCUS AREA" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{428B5921-B4BD-4F96-B294-7915DE7994C4}" name="INITIATIVE TYPE" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{B5038176-6BB5-47EB-B4BF-43BC57248417}" name="TIMELINE" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{2ED1FA0D-E0DC-4A37-8EAF-16347142A1FE}" name="LEAD MDA" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3838,7 +3829,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K448"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3905,7 +3898,7 @@
         <v>13</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="36" x14ac:dyDescent="0.3">
@@ -3931,7 +3924,7 @@
         <v>13</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="36" x14ac:dyDescent="0.3">
@@ -3957,7 +3950,7 @@
         <v>13</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="54" x14ac:dyDescent="0.3">
@@ -3983,7 +3976,7 @@
         <v>13</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="72" x14ac:dyDescent="0.3">
@@ -4009,7 +4002,7 @@
         <v>13</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="36" x14ac:dyDescent="0.3">
@@ -4035,7 +4028,7 @@
         <v>13</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="54" x14ac:dyDescent="0.3">
@@ -4061,7 +4054,7 @@
         <v>13</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="36" x14ac:dyDescent="0.3">
@@ -4087,7 +4080,7 @@
         <v>13</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="36" x14ac:dyDescent="0.3">
@@ -4113,7 +4106,7 @@
         <v>13</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="36" x14ac:dyDescent="0.3">
@@ -4139,7 +4132,7 @@
         <v>13</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="54" x14ac:dyDescent="0.3">
@@ -4165,7 +4158,7 @@
         <v>13</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="36" x14ac:dyDescent="0.3">
@@ -4191,7 +4184,7 @@
         <v>13</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="36" x14ac:dyDescent="0.3">
@@ -4217,7 +4210,7 @@
         <v>13</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="36" x14ac:dyDescent="0.3">
@@ -4243,7 +4236,7 @@
         <v>13</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="54" x14ac:dyDescent="0.3">
@@ -4269,7 +4262,7 @@
         <v>13</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="54" x14ac:dyDescent="0.3">
@@ -4295,7 +4288,7 @@
         <v>13</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="54" x14ac:dyDescent="0.3">
@@ -4321,7 +4314,7 @@
         <v>13</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="54" x14ac:dyDescent="0.3">
@@ -4347,7 +4340,7 @@
         <v>13</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="54" x14ac:dyDescent="0.3">
@@ -4373,7 +4366,7 @@
         <v>13</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4399,7 +4392,7 @@
         <v>13</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4425,7 +4418,7 @@
         <v>13</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4581,7 +4574,7 @@
         <v>13</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4607,7 +4600,7 @@
         <v>13</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4633,7 +4626,7 @@
         <v>13</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4659,7 +4652,7 @@
         <v>13</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4685,7 +4678,7 @@
         <v>13</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4711,7 +4704,7 @@
         <v>13</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4737,7 +4730,7 @@
         <v>13</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4763,7 +4756,7 @@
         <v>13</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4789,7 +4782,7 @@
         <v>13</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4841,7 +4834,7 @@
         <v>13</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4867,7 +4860,7 @@
         <v>13</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4893,7 +4886,7 @@
         <v>13</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4919,7 +4912,7 @@
         <v>13</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4945,7 +4938,7 @@
         <v>13</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4997,7 +4990,7 @@
         <v>13</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5023,7 +5016,7 @@
         <v>13</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5049,7 +5042,7 @@
         <v>13</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.3">
@@ -5075,7 +5068,7 @@
         <v>13</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5101,7 +5094,7 @@
         <v>13</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5127,7 +5120,7 @@
         <v>13</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5153,7 +5146,7 @@
         <v>13</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5179,7 +5172,7 @@
         <v>13</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5205,7 +5198,7 @@
         <v>13</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5231,7 +5224,7 @@
         <v>13</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5257,7 +5250,7 @@
         <v>13</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5283,7 +5276,7 @@
         <v>13</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5361,7 +5354,7 @@
         <v>13</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5387,7 +5380,7 @@
         <v>13</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5569,7 +5562,7 @@
         <v>13</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5595,7 +5588,7 @@
         <v>13</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5621,7 +5614,7 @@
         <v>13</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5647,7 +5640,7 @@
         <v>13</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5777,7 +5770,7 @@
         <v>13</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5803,7 +5796,7 @@
         <v>13</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5829,7 +5822,7 @@
         <v>13</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5855,7 +5848,7 @@
         <v>13</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5985,7 +5978,7 @@
         <v>13</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6011,7 +6004,7 @@
         <v>13</v>
       </c>
       <c r="H83" s="9" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6037,7 +6030,7 @@
         <v>13</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6063,7 +6056,7 @@
         <v>13</v>
       </c>
       <c r="H85" s="9" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6089,7 +6082,7 @@
         <v>13</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6115,7 +6108,7 @@
         <v>13</v>
       </c>
       <c r="H87" s="9" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6141,7 +6134,7 @@
         <v>13</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6193,7 +6186,7 @@
         <v>13</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6245,7 +6238,7 @@
         <v>13</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6271,7 +6264,7 @@
         <v>13</v>
       </c>
       <c r="H93" s="9" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6349,7 +6342,7 @@
         <v>13</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6375,7 +6368,7 @@
         <v>13</v>
       </c>
       <c r="H97" s="9" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6401,7 +6394,7 @@
         <v>13</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6427,7 +6420,7 @@
         <v>13</v>
       </c>
       <c r="H99" s="9" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6453,7 +6446,7 @@
         <v>13</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6479,7 +6472,7 @@
         <v>13</v>
       </c>
       <c r="H101" s="9" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6505,7 +6498,7 @@
         <v>13</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6531,7 +6524,7 @@
         <v>13</v>
       </c>
       <c r="H103" s="9" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6557,7 +6550,7 @@
         <v>13</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6583,7 +6576,7 @@
         <v>13</v>
       </c>
       <c r="H105" s="9" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6609,7 +6602,7 @@
         <v>13</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6635,7 +6628,7 @@
         <v>13</v>
       </c>
       <c r="H107" s="9" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6680,14 +6673,14 @@
       <c r="E109" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="F109" s="9" t="s">
-        <v>255</v>
+      <c r="F109" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="G109" s="9" t="s">
         <v>13</v>
       </c>
       <c r="H109" s="9" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6695,10 +6688,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C110" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="D110" s="7" t="s">
         <v>225</v>
@@ -6707,13 +6700,13 @@
         <v>251</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>255</v>
+        <v>24</v>
       </c>
       <c r="G110" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6721,10 +6714,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="C111" s="9" t="s">
         <v>258</v>
-      </c>
-      <c r="C111" s="9" t="s">
-        <v>259</v>
       </c>
       <c r="D111" s="9" t="s">
         <v>225</v>
@@ -6732,14 +6725,14 @@
       <c r="E111" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="F111" s="9" t="s">
-        <v>255</v>
+      <c r="F111" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="G111" s="9" t="s">
         <v>13</v>
       </c>
       <c r="H111" s="9" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6747,10 +6740,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C112" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="C112" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="D112" s="7" t="s">
         <v>225</v>
@@ -6765,7 +6758,7 @@
         <v>13</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6773,10 +6766,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D113" s="9" t="s">
         <v>225</v>
@@ -6784,14 +6777,14 @@
       <c r="E113" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="F113" s="9" t="s">
-        <v>255</v>
+      <c r="F113" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="G113" s="9" t="s">
         <v>13</v>
       </c>
       <c r="H113" s="9" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6799,10 +6792,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D114" s="7" t="s">
         <v>225</v>
@@ -6817,7 +6810,7 @@
         <v>13</v>
       </c>
       <c r="H114" s="7" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6825,10 +6818,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D115" s="9" t="s">
         <v>225</v>
@@ -6843,7 +6836,7 @@
         <v>13</v>
       </c>
       <c r="H115" s="9" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6851,10 +6844,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D116" s="7" t="s">
         <v>225</v>
@@ -6869,7 +6862,7 @@
         <v>13</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6877,10 +6870,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D117" s="9" t="s">
         <v>225</v>
@@ -6888,14 +6881,14 @@
       <c r="E117" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="F117" s="9" t="s">
-        <v>255</v>
+      <c r="F117" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="G117" s="9" t="s">
         <v>13</v>
       </c>
       <c r="H117" s="9" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6903,16 +6896,16 @@
         <v>117</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D118" s="7" t="s">
         <v>225</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F118" s="7" t="s">
         <v>24</v>
@@ -6929,16 +6922,16 @@
         <v>118</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D119" s="9" t="s">
         <v>225</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F119" s="9" t="s">
         <v>16</v>
@@ -6955,16 +6948,16 @@
         <v>119</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D120" s="7" t="s">
         <v>225</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F120" s="7" t="s">
         <v>24</v>
@@ -6981,16 +6974,16 @@
         <v>120</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D121" s="9" t="s">
         <v>225</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F121" s="9" t="s">
         <v>24</v>
@@ -6999,7 +6992,7 @@
         <v>13</v>
       </c>
       <c r="H121" s="9" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7007,16 +7000,16 @@
         <v>121</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D122" s="7" t="s">
         <v>225</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F122" s="7" t="s">
         <v>24</v>
@@ -7025,7 +7018,7 @@
         <v>13</v>
       </c>
       <c r="H122" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7033,16 +7026,16 @@
         <v>122</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D123" s="9" t="s">
         <v>225</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F123" s="9" t="s">
         <v>16</v>
@@ -7051,7 +7044,7 @@
         <v>13</v>
       </c>
       <c r="H123" s="9" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7059,16 +7052,16 @@
         <v>123</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D124" s="7" t="s">
         <v>225</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F124" s="7" t="s">
         <v>24</v>
@@ -7077,7 +7070,7 @@
         <v>13</v>
       </c>
       <c r="H124" s="7" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7085,16 +7078,16 @@
         <v>124</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D125" s="9" t="s">
         <v>225</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F125" s="9" t="s">
         <v>24</v>
@@ -7103,7 +7096,7 @@
         <v>13</v>
       </c>
       <c r="H125" s="9" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7111,16 +7104,16 @@
         <v>125</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D126" s="7" t="s">
         <v>225</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F126" s="7" t="s">
         <v>24</v>
@@ -7129,7 +7122,7 @@
         <v>13</v>
       </c>
       <c r="H126" s="7" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7137,16 +7130,16 @@
         <v>126</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D127" s="9" t="s">
         <v>225</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F127" s="9" t="s">
         <v>24</v>
@@ -7155,7 +7148,7 @@
         <v>13</v>
       </c>
       <c r="H127" s="9" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7163,16 +7156,16 @@
         <v>127</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D128" s="7" t="s">
         <v>225</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F128" s="7" t="s">
         <v>21</v>
@@ -7181,7 +7174,7 @@
         <v>13</v>
       </c>
       <c r="H128" s="7" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7189,16 +7182,16 @@
         <v>128</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D129" s="9" t="s">
         <v>225</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F129" s="9" t="s">
         <v>21</v>
@@ -7207,7 +7200,7 @@
         <v>13</v>
       </c>
       <c r="H129" s="9" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7215,16 +7208,16 @@
         <v>129</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D130" s="7" t="s">
         <v>225</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F130" s="7" t="s">
         <v>24</v>
@@ -7233,7 +7226,7 @@
         <v>13</v>
       </c>
       <c r="H130" s="7" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7241,16 +7234,16 @@
         <v>130</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D131" s="9" t="s">
         <v>225</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F131" s="9" t="s">
         <v>24</v>
@@ -7259,7 +7252,7 @@
         <v>13</v>
       </c>
       <c r="H131" s="9" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7267,16 +7260,16 @@
         <v>131</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D132" s="7" t="s">
         <v>225</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F132" s="7" t="s">
         <v>24</v>
@@ -7285,7 +7278,7 @@
         <v>13</v>
       </c>
       <c r="H132" s="7" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7293,16 +7286,16 @@
         <v>132</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D133" s="9" t="s">
         <v>225</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F133" s="9" t="s">
         <v>21</v>
@@ -7311,7 +7304,7 @@
         <v>13</v>
       </c>
       <c r="H133" s="9" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7319,16 +7312,16 @@
         <v>133</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D134" s="7" t="s">
         <v>225</v>
       </c>
       <c r="E134" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F134" s="7" t="s">
         <v>21</v>
@@ -7337,7 +7330,7 @@
         <v>13</v>
       </c>
       <c r="H134" s="7" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7345,16 +7338,16 @@
         <v>134</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D135" s="9" t="s">
         <v>225</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F135" s="9" t="s">
         <v>16</v>
@@ -7363,7 +7356,7 @@
         <v>13</v>
       </c>
       <c r="H135" s="9" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7371,16 +7364,16 @@
         <v>135</v>
       </c>
       <c r="B136" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="D136" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="C136" s="7" t="s">
+      <c r="E136" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="D136" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="E136" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="F136" s="7" t="s">
         <v>24</v>
@@ -7397,16 +7390,16 @@
         <v>136</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F137" s="9" t="s">
         <v>16</v>
@@ -7423,16 +7416,16 @@
         <v>137</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F138" s="7" t="s">
         <v>21</v>
@@ -7449,16 +7442,16 @@
         <v>138</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F139" s="9" t="s">
         <v>24</v>
@@ -7475,16 +7468,16 @@
         <v>139</v>
       </c>
       <c r="B140" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="D140" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="E140" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="C140" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="D140" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="E140" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="F140" s="7" t="s">
         <v>12</v>
@@ -7493,7 +7486,7 @@
         <v>13</v>
       </c>
       <c r="H140" s="7" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7501,16 +7494,16 @@
         <v>140</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F141" s="9" t="s">
         <v>21</v>
@@ -7527,16 +7520,16 @@
         <v>141</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F142" s="7" t="s">
         <v>24</v>
@@ -7553,16 +7546,16 @@
         <v>142</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F143" s="7" t="s">
         <v>12</v>
@@ -7579,16 +7572,16 @@
         <v>143</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F144" s="7" t="s">
         <v>24</v>
@@ -7605,16 +7598,16 @@
         <v>144</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D145" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F145" s="9" t="s">
         <v>24</v>
@@ -7631,16 +7624,16 @@
         <v>145</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E146" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F146" s="7" t="s">
         <v>24</v>
@@ -7657,16 +7650,16 @@
         <v>146</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D147" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E147" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F147" s="9" t="s">
         <v>24</v>
@@ -7683,16 +7676,16 @@
         <v>147</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E148" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F148" s="7" t="s">
         <v>24</v>
@@ -7709,17 +7702,17 @@
         <v>148</v>
       </c>
       <c r="B149" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="C149" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="D149" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="E149" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="C149" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="D149" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="E149" s="9" t="s">
-        <v>343</v>
-      </c>
       <c r="F149" s="9" t="s">
         <v>24</v>
       </c>
@@ -7727,7 +7720,7 @@
         <v>13</v>
       </c>
       <c r="H149" s="9" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7735,16 +7728,16 @@
         <v>149</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E150" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F150" s="7" t="s">
         <v>24</v>
@@ -7753,7 +7746,7 @@
         <v>13</v>
       </c>
       <c r="H150" s="7" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7761,16 +7754,16 @@
         <v>150</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D151" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E151" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F151" s="9" t="s">
         <v>16</v>
@@ -7779,7 +7772,7 @@
         <v>13</v>
       </c>
       <c r="H151" s="9" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7787,16 +7780,16 @@
         <v>151</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E152" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F152" s="7" t="s">
         <v>21</v>
@@ -7805,7 +7798,7 @@
         <v>13</v>
       </c>
       <c r="H152" s="7" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7813,16 +7806,16 @@
         <v>152</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D153" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E153" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F153" s="7" t="s">
         <v>12</v>
@@ -7831,7 +7824,7 @@
         <v>13</v>
       </c>
       <c r="H153" s="9" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7839,16 +7832,16 @@
         <v>153</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E154" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F154" s="7" t="s">
         <v>24</v>
@@ -7857,7 +7850,7 @@
         <v>13</v>
       </c>
       <c r="H154" s="7" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7865,16 +7858,16 @@
         <v>154</v>
       </c>
       <c r="B155" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="C155" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="D155" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="E155" s="9" t="s">
         <v>354</v>
-      </c>
-      <c r="C155" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="D155" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="E155" s="9" t="s">
-        <v>356</v>
       </c>
       <c r="F155" s="7" t="s">
         <v>12</v>
@@ -7891,16 +7884,16 @@
         <v>155</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E156" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F156" s="7" t="s">
         <v>24</v>
@@ -7917,16 +7910,16 @@
         <v>156</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D157" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F157" s="9" t="s">
         <v>24</v>
@@ -7943,16 +7936,16 @@
         <v>157</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F158" s="7" t="s">
         <v>24</v>
@@ -7969,16 +7962,16 @@
         <v>158</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F159" s="9" t="s">
         <v>24</v>
@@ -7995,16 +7988,16 @@
         <v>159</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E160" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F160" s="7" t="s">
         <v>21</v>
@@ -8021,25 +8014,25 @@
         <v>160</v>
       </c>
       <c r="B161" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="C161" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="D161" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="E161" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="F161" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G161" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H161" s="9" t="s">
         <v>367</v>
-      </c>
-      <c r="C161" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="D161" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="E161" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="F161" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G161" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H161" s="9" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8047,16 +8040,16 @@
         <v>161</v>
       </c>
       <c r="B162" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="D162" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="E162" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="C162" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="D162" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="E162" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="F162" s="7" t="s">
         <v>12</v>
@@ -8065,7 +8058,7 @@
         <v>13</v>
       </c>
       <c r="H162" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8073,16 +8066,16 @@
         <v>162</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D163" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E163" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F163" s="9" t="s">
         <v>16</v>
@@ -8091,7 +8084,7 @@
         <v>13</v>
       </c>
       <c r="H163" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8099,16 +8092,16 @@
         <v>163</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E164" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F164" s="7" t="s">
         <v>21</v>
@@ -8117,7 +8110,7 @@
         <v>13</v>
       </c>
       <c r="H164" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8125,16 +8118,16 @@
         <v>164</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D165" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E165" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F165" s="9" t="s">
         <v>24</v>
@@ -8143,7 +8136,7 @@
         <v>13</v>
       </c>
       <c r="H165" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8151,16 +8144,16 @@
         <v>165</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E166" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F166" s="7" t="s">
         <v>24</v>
@@ -8169,7 +8162,7 @@
         <v>13</v>
       </c>
       <c r="H166" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8177,16 +8170,16 @@
         <v>166</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E167" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F167" s="9" t="s">
         <v>24</v>
@@ -8195,7 +8188,7 @@
         <v>13</v>
       </c>
       <c r="H167" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8203,16 +8196,16 @@
         <v>167</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D168" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E168" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F168" s="7" t="s">
         <v>21</v>
@@ -8221,7 +8214,7 @@
         <v>13</v>
       </c>
       <c r="H168" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8229,16 +8222,16 @@
         <v>168</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D169" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E169" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F169" s="9" t="s">
         <v>16</v>
@@ -8247,7 +8240,7 @@
         <v>13</v>
       </c>
       <c r="H169" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8255,16 +8248,16 @@
         <v>169</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E170" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F170" s="7" t="s">
         <v>24</v>
@@ -8273,7 +8266,7 @@
         <v>13</v>
       </c>
       <c r="H170" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8281,16 +8274,16 @@
         <v>170</v>
       </c>
       <c r="B171" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="C171" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="D171" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="E171" s="9" t="s">
         <v>390</v>
-      </c>
-      <c r="C171" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="D171" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="E171" s="9" t="s">
-        <v>392</v>
       </c>
       <c r="F171" s="9" t="s">
         <v>16</v>
@@ -8307,16 +8300,16 @@
         <v>171</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E172" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F172" s="7" t="s">
         <v>21</v>
@@ -8325,7 +8318,7 @@
         <v>13</v>
       </c>
       <c r="H172" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8333,16 +8326,16 @@
         <v>172</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D173" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E173" s="9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F173" s="9" t="s">
         <v>24</v>
@@ -8351,7 +8344,7 @@
         <v>13</v>
       </c>
       <c r="H173" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8359,16 +8352,16 @@
         <v>173</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E174" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F174" s="7" t="s">
         <v>21</v>
@@ -8377,7 +8370,7 @@
         <v>13</v>
       </c>
       <c r="H174" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8385,16 +8378,16 @@
         <v>174</v>
       </c>
       <c r="B175" s="9" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D175" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E175" s="9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F175" s="9" t="s">
         <v>16</v>
@@ -8403,7 +8396,7 @@
         <v>13</v>
       </c>
       <c r="H175" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8411,16 +8404,16 @@
         <v>175</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C176" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D176" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E176" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F176" s="7" t="s">
         <v>12</v>
@@ -8429,7 +8422,7 @@
         <v>13</v>
       </c>
       <c r="H176" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8437,16 +8430,16 @@
         <v>176</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D177" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E177" s="9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F177" s="9" t="s">
         <v>16</v>
@@ -8455,7 +8448,7 @@
         <v>13</v>
       </c>
       <c r="H177" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8463,16 +8456,16 @@
         <v>177</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C178" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D178" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E178" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F178" s="7" t="s">
         <v>24</v>
@@ -8481,7 +8474,7 @@
         <v>13</v>
       </c>
       <c r="H178" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8489,16 +8482,16 @@
         <v>178</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D179" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E179" s="9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F179" s="9" t="s">
         <v>21</v>
@@ -8507,7 +8500,7 @@
         <v>13</v>
       </c>
       <c r="H179" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8515,25 +8508,25 @@
         <v>179</v>
       </c>
       <c r="B180" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="C180" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="D180" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="E180" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F180" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G180" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H180" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="C180" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="D180" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="E180" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="F180" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G180" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H180" s="7" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8541,25 +8534,25 @@
         <v>180</v>
       </c>
       <c r="B181" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="C181" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="D181" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="E181" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="F181" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G181" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H181" s="9" t="s">
         <v>413</v>
-      </c>
-      <c r="C181" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="D181" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="E181" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="F181" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G181" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H181" s="9" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8567,16 +8560,16 @@
         <v>181</v>
       </c>
       <c r="B182" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="D182" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="C182" s="7" t="s">
+      <c r="E182" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="D182" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="E182" s="7" t="s">
-        <v>419</v>
       </c>
       <c r="F182" s="7" t="s">
         <v>21</v>
@@ -8593,16 +8586,16 @@
         <v>182</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D183" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E183" s="9" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F183" s="9" t="s">
         <v>16</v>
@@ -8619,16 +8612,16 @@
         <v>183</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D184" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E184" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F184" s="7" t="s">
         <v>24</v>
@@ -8645,16 +8638,16 @@
         <v>184</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D185" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E185" s="9" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F185" s="9" t="s">
         <v>16</v>
@@ -8671,16 +8664,16 @@
         <v>185</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D186" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E186" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F186" s="7" t="s">
         <v>24</v>
@@ -8697,16 +8690,16 @@
         <v>186</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C187" s="9" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D187" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E187" s="9" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F187" s="9" t="s">
         <v>16</v>
@@ -8723,16 +8716,16 @@
         <v>187</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D188" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E188" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F188" s="7" t="s">
         <v>24</v>
@@ -8749,16 +8742,16 @@
         <v>188</v>
       </c>
       <c r="B189" s="9" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C189" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D189" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E189" s="9" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F189" s="9" t="s">
         <v>21</v>
@@ -8775,16 +8768,16 @@
         <v>189</v>
       </c>
       <c r="B190" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="D190" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="E190" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="C190" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="D190" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="E190" s="7" t="s">
-        <v>436</v>
       </c>
       <c r="F190" s="7" t="s">
         <v>16</v>
@@ -8793,7 +8786,7 @@
         <v>13</v>
       </c>
       <c r="H190" s="7" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8801,16 +8794,16 @@
         <v>190</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E191" s="9" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F191" s="9" t="s">
         <v>21</v>
@@ -8819,7 +8812,7 @@
         <v>13</v>
       </c>
       <c r="H191" s="9" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8827,16 +8820,16 @@
         <v>191</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C192" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D192" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E192" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F192" s="7" t="s">
         <v>12</v>
@@ -8845,7 +8838,7 @@
         <v>13</v>
       </c>
       <c r="H192" s="7" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8853,16 +8846,16 @@
         <v>192</v>
       </c>
       <c r="B193" s="9" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C193" s="9" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D193" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E193" s="9" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F193" s="9" t="s">
         <v>16</v>
@@ -8871,7 +8864,7 @@
         <v>13</v>
       </c>
       <c r="H193" s="9" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8879,16 +8872,16 @@
         <v>193</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D194" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E194" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F194" s="7" t="s">
         <v>16</v>
@@ -8897,7 +8890,7 @@
         <v>13</v>
       </c>
       <c r="H194" s="7" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8905,16 +8898,16 @@
         <v>194</v>
       </c>
       <c r="B195" s="9" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C195" s="9" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D195" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E195" s="9" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F195" s="9" t="s">
         <v>24</v>
@@ -8923,7 +8916,7 @@
         <v>13</v>
       </c>
       <c r="H195" s="9" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8931,16 +8924,16 @@
         <v>195</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C196" s="7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D196" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E196" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F196" s="7" t="s">
         <v>21</v>
@@ -8949,7 +8942,7 @@
         <v>13</v>
       </c>
       <c r="H196" s="7" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8957,16 +8950,16 @@
         <v>196</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C197" s="9" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D197" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E197" s="9" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F197" s="9" t="s">
         <v>24</v>
@@ -8975,7 +8968,7 @@
         <v>13</v>
       </c>
       <c r="H197" s="9" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8983,16 +8976,16 @@
         <v>197</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C198" s="7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D198" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E198" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F198" s="7" t="s">
         <v>12</v>
@@ -9009,16 +9002,16 @@
         <v>198</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C199" s="9" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D199" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E199" s="9" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F199" s="7" t="s">
         <v>12</v>
@@ -9035,16 +9028,16 @@
         <v>199</v>
       </c>
       <c r="B200" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="C200" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="D200" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="E200" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="C200" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="D200" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="E200" s="7" t="s">
-        <v>458</v>
       </c>
       <c r="F200" s="7" t="s">
         <v>24</v>
@@ -9061,16 +9054,16 @@
         <v>200</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C201" s="9" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D201" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E201" s="9" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F201" s="9" t="s">
         <v>24</v>
@@ -9087,16 +9080,16 @@
         <v>201</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D202" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E202" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F202" s="7" t="s">
         <v>24</v>
@@ -9113,16 +9106,16 @@
         <v>202</v>
       </c>
       <c r="B203" s="9" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C203" s="9" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D203" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E203" s="9" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F203" s="9" t="s">
         <v>16</v>
@@ -9139,16 +9132,16 @@
         <v>203</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D204" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E204" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F204" s="7" t="s">
         <v>24</v>
@@ -9165,16 +9158,16 @@
         <v>204</v>
       </c>
       <c r="B205" s="9" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C205" s="9" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D205" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E205" s="9" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F205" s="9" t="s">
         <v>24</v>
@@ -9191,16 +9184,16 @@
         <v>205</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C206" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D206" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E206" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F206" s="7" t="s">
         <v>24</v>
@@ -9217,16 +9210,16 @@
         <v>206</v>
       </c>
       <c r="B207" s="9" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C207" s="9" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D207" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E207" s="9" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F207" s="9" t="s">
         <v>24</v>
@@ -9243,16 +9236,16 @@
         <v>207</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C208" s="7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D208" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E208" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F208" s="7" t="s">
         <v>16</v>
@@ -9269,16 +9262,16 @@
         <v>208</v>
       </c>
       <c r="B209" s="9" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C209" s="9" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D209" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E209" s="9" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F209" s="9" t="s">
         <v>21</v>
@@ -9295,16 +9288,16 @@
         <v>209</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D210" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E210" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F210" s="7" t="s">
         <v>24</v>
@@ -9321,16 +9314,16 @@
         <v>210</v>
       </c>
       <c r="B211" s="9" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C211" s="9" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D211" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E211" s="9" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F211" s="9" t="s">
         <v>21</v>
@@ -9347,16 +9340,16 @@
         <v>211</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C212" s="7" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D212" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E212" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F212" s="7" t="s">
         <v>16</v>
@@ -9365,7 +9358,7 @@
         <v>13</v>
       </c>
       <c r="H212" s="7" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="213" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9373,16 +9366,16 @@
         <v>212</v>
       </c>
       <c r="B213" s="9" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C213" s="9" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D213" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E213" s="9" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F213" s="9" t="s">
         <v>16</v>
@@ -9399,16 +9392,16 @@
         <v>213</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D214" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E214" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F214" s="7" t="s">
         <v>24</v>
@@ -9425,16 +9418,16 @@
         <v>214</v>
       </c>
       <c r="B215" s="9" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C215" s="9" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D215" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E215" s="9" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F215" s="9" t="s">
         <v>24</v>
@@ -9451,16 +9444,16 @@
         <v>215</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D216" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E216" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F216" s="7" t="s">
         <v>24</v>
@@ -9477,16 +9470,16 @@
         <v>216</v>
       </c>
       <c r="B217" s="9" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C217" s="9" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D217" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E217" s="9" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F217" s="9" t="s">
         <v>24</v>
@@ -9503,16 +9496,16 @@
         <v>217</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D218" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E218" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F218" s="7" t="s">
         <v>16</v>
@@ -9529,16 +9522,16 @@
         <v>218</v>
       </c>
       <c r="B219" s="9" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C219" s="9" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D219" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E219" s="9" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F219" s="9" t="s">
         <v>16</v>
@@ -9555,16 +9548,16 @@
         <v>219</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D220" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E220" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F220" s="7" t="s">
         <v>12</v>
@@ -9581,16 +9574,16 @@
         <v>220</v>
       </c>
       <c r="B221" s="9" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C221" s="9" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D221" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E221" s="9" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F221" s="7" t="s">
         <v>12</v>
@@ -9607,16 +9600,16 @@
         <v>221</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C222" s="7" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D222" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E222" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F222" s="7" t="s">
         <v>24</v>
@@ -9633,16 +9626,16 @@
         <v>222</v>
       </c>
       <c r="B223" s="9" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C223" s="9" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D223" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E223" s="9" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F223" s="9" t="s">
         <v>24</v>
@@ -9659,16 +9652,16 @@
         <v>223</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C224" s="7" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D224" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E224" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F224" s="7" t="s">
         <v>24</v>
@@ -9685,16 +9678,16 @@
         <v>224</v>
       </c>
       <c r="B225" s="9" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C225" s="9" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D225" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E225" s="9" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F225" s="9" t="s">
         <v>24</v>
@@ -9711,16 +9704,16 @@
         <v>225</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C226" s="7" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D226" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E226" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F226" s="7" t="s">
         <v>24</v>
@@ -9737,16 +9730,16 @@
         <v>226</v>
       </c>
       <c r="B227" s="9" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C227" s="9" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D227" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E227" s="9" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F227" s="7" t="s">
         <v>12</v>
@@ -9763,16 +9756,16 @@
         <v>227</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C228" s="7" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D228" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E228" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F228" s="7" t="s">
         <v>12</v>
@@ -9789,16 +9782,16 @@
         <v>228</v>
       </c>
       <c r="B229" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="C229" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="D229" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="E229" s="9" t="s">
         <v>516</v>
-      </c>
-      <c r="C229" s="9" t="s">
-        <v>517</v>
-      </c>
-      <c r="D229" s="9" t="s">
-        <v>418</v>
-      </c>
-      <c r="E229" s="9" t="s">
-        <v>518</v>
       </c>
       <c r="F229" s="7" t="s">
         <v>12</v>
@@ -9815,16 +9808,16 @@
         <v>229</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C230" s="7" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D230" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E230" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F230" s="7" t="s">
         <v>12</v>
@@ -9841,16 +9834,16 @@
         <v>230</v>
       </c>
       <c r="B231" s="9" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C231" s="9" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D231" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E231" s="9" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F231" s="7" t="s">
         <v>12</v>
@@ -9867,16 +9860,16 @@
         <v>231</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C232" s="7" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D232" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E232" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F232" s="7" t="s">
         <v>24</v>
@@ -9893,16 +9886,16 @@
         <v>232</v>
       </c>
       <c r="B233" s="9" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C233" s="9" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D233" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E233" s="9" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F233" s="9" t="s">
         <v>24</v>
@@ -9919,16 +9912,16 @@
         <v>233</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C234" s="7" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D234" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E234" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F234" s="7" t="s">
         <v>24</v>
@@ -9945,16 +9938,16 @@
         <v>234</v>
       </c>
       <c r="B235" s="9" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C235" s="9" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D235" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E235" s="9" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F235" s="9" t="s">
         <v>21</v>
@@ -9971,16 +9964,16 @@
         <v>235</v>
       </c>
       <c r="B236" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C236" s="7" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D236" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E236" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F236" s="7" t="s">
         <v>21</v>
@@ -9997,16 +9990,16 @@
         <v>236</v>
       </c>
       <c r="B237" s="9" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C237" s="9" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D237" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E237" s="9" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F237" s="9" t="s">
         <v>21</v>
@@ -10023,16 +10016,16 @@
         <v>237</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C238" s="7" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D238" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E238" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F238" s="7" t="s">
         <v>21</v>
@@ -10049,16 +10042,16 @@
         <v>238</v>
       </c>
       <c r="B239" s="9" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C239" s="9" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D239" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E239" s="9" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F239" s="9" t="s">
         <v>21</v>
@@ -10075,16 +10068,16 @@
         <v>239</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C240" s="7" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D240" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E240" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F240" s="7" t="s">
         <v>21</v>
@@ -10101,16 +10094,16 @@
         <v>240</v>
       </c>
       <c r="B241" s="9" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C241" s="9" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D241" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E241" s="9" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F241" s="7" t="s">
         <v>12</v>
@@ -10127,16 +10120,16 @@
         <v>241</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C242" s="7" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D242" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E242" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F242" s="7" t="s">
         <v>12</v>
@@ -10153,16 +10146,16 @@
         <v>242</v>
       </c>
       <c r="B243" s="9" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C243" s="9" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D243" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E243" s="9" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F243" s="7" t="s">
         <v>12</v>
@@ -10179,16 +10172,16 @@
         <v>243</v>
       </c>
       <c r="B244" s="7" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C244" s="7" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D244" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E244" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F244" s="7" t="s">
         <v>12</v>
@@ -10205,16 +10198,16 @@
         <v>244</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C245" s="9" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D245" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E245" s="9" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F245" s="7" t="s">
         <v>12</v>
@@ -10231,16 +10224,16 @@
         <v>245</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C246" s="7" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D246" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E246" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F246" s="7" t="s">
         <v>12</v>
@@ -10257,25 +10250,25 @@
         <v>246</v>
       </c>
       <c r="B247" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="C247" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="D247" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="E247" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="F247" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G247" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H247" s="9" t="s">
         <v>553</v>
-      </c>
-      <c r="C247" s="9" t="s">
-        <v>554</v>
-      </c>
-      <c r="D247" s="9" t="s">
-        <v>418</v>
-      </c>
-      <c r="E247" s="9" t="s">
-        <v>518</v>
-      </c>
-      <c r="F247" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G247" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H247" s="9" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="248" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10283,16 +10276,16 @@
         <v>247</v>
       </c>
       <c r="B248" s="7" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C248" s="7" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D248" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E248" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F248" s="7" t="s">
         <v>24</v>
@@ -10301,7 +10294,7 @@
         <v>13</v>
       </c>
       <c r="H248" s="7" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="249" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10309,16 +10302,16 @@
         <v>248</v>
       </c>
       <c r="B249" s="9" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C249" s="9" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D249" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E249" s="9" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F249" s="9" t="s">
         <v>21</v>
@@ -10335,16 +10328,16 @@
         <v>249</v>
       </c>
       <c r="B250" s="7" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C250" s="7" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D250" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E250" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F250" s="7" t="s">
         <v>24</v>
@@ -10361,16 +10354,16 @@
         <v>250</v>
       </c>
       <c r="B251" s="9" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C251" s="9" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D251" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E251" s="9" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F251" s="9" t="s">
         <v>24</v>
@@ -10387,16 +10380,16 @@
         <v>251</v>
       </c>
       <c r="B252" s="7" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C252" s="7" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D252" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E252" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F252" s="7" t="s">
         <v>24</v>
@@ -10413,16 +10406,16 @@
         <v>252</v>
       </c>
       <c r="B253" s="9" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C253" s="9" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D253" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E253" s="9" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F253" s="9" t="s">
         <v>21</v>
@@ -10439,16 +10432,16 @@
         <v>253</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C254" s="7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D254" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E254" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F254" s="7" t="s">
         <v>24</v>
@@ -10465,16 +10458,16 @@
         <v>254</v>
       </c>
       <c r="B255" s="9" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C255" s="9" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D255" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E255" s="9" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F255" s="9" t="s">
         <v>24</v>
@@ -10491,16 +10484,16 @@
         <v>255</v>
       </c>
       <c r="B256" s="7" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C256" s="7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D256" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E256" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F256" s="7" t="s">
         <v>24</v>
@@ -10517,16 +10510,16 @@
         <v>256</v>
       </c>
       <c r="B257" s="9" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C257" s="9" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D257" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E257" s="9" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F257" s="9" t="s">
         <v>24</v>
@@ -10543,16 +10536,16 @@
         <v>257</v>
       </c>
       <c r="B258" s="7" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C258" s="7" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D258" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E258" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F258" s="7" t="s">
         <v>24</v>
@@ -10569,16 +10562,16 @@
         <v>258</v>
       </c>
       <c r="B259" s="9" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C259" s="9" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D259" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E259" s="9" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F259" s="9" t="s">
         <v>24</v>
@@ -10595,16 +10588,16 @@
         <v>259</v>
       </c>
       <c r="B260" s="7" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C260" s="7" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D260" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E260" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F260" s="7" t="s">
         <v>24</v>
@@ -10621,16 +10614,16 @@
         <v>260</v>
       </c>
       <c r="B261" s="9" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C261" s="9" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D261" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E261" s="9" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F261" s="9" t="s">
         <v>24</v>
@@ -10647,16 +10640,16 @@
         <v>261</v>
       </c>
       <c r="B262" s="7" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C262" s="7" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D262" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E262" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F262" s="7" t="s">
         <v>21</v>
@@ -10665,7 +10658,7 @@
         <v>13</v>
       </c>
       <c r="H262" s="7" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="263" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10673,16 +10666,16 @@
         <v>262</v>
       </c>
       <c r="B263" s="9" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C263" s="9" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D263" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E263" s="9" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F263" s="9" t="s">
         <v>24</v>
@@ -10699,16 +10692,16 @@
         <v>263</v>
       </c>
       <c r="B264" s="7" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C264" s="7" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D264" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E264" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F264" s="7" t="s">
         <v>24</v>
@@ -10725,16 +10718,16 @@
         <v>264</v>
       </c>
       <c r="B265" s="9" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C265" s="9" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D265" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E265" s="9" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F265" s="9" t="s">
         <v>16</v>
@@ -10743,7 +10736,7 @@
         <v>13</v>
       </c>
       <c r="H265" s="9" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="266" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10751,16 +10744,16 @@
         <v>265</v>
       </c>
       <c r="B266" s="7" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C266" s="7" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D266" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E266" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F266" s="7" t="s">
         <v>24</v>
@@ -10769,7 +10762,7 @@
         <v>13</v>
       </c>
       <c r="H266" s="7" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="267" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10777,16 +10770,16 @@
         <v>266</v>
       </c>
       <c r="B267" s="9" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C267" s="9" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D267" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E267" s="9" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F267" s="9" t="s">
         <v>16</v>
@@ -10795,7 +10788,7 @@
         <v>13</v>
       </c>
       <c r="H267" s="9" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="268" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10803,16 +10796,16 @@
         <v>267</v>
       </c>
       <c r="B268" s="7" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C268" s="7" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D268" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E268" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F268" s="7" t="s">
         <v>24</v>
@@ -10821,7 +10814,7 @@
         <v>13</v>
       </c>
       <c r="H268" s="7" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="269" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10829,16 +10822,16 @@
         <v>268</v>
       </c>
       <c r="B269" s="9" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C269" s="9" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D269" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E269" s="9" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F269" s="9" t="s">
         <v>16</v>
@@ -10847,7 +10840,7 @@
         <v>13</v>
       </c>
       <c r="H269" s="9" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="270" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10855,16 +10848,16 @@
         <v>269</v>
       </c>
       <c r="B270" s="7" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C270" s="7" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D270" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E270" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F270" s="7" t="s">
         <v>16</v>
@@ -10873,7 +10866,7 @@
         <v>13</v>
       </c>
       <c r="H270" s="7" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="271" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10881,16 +10874,16 @@
         <v>270</v>
       </c>
       <c r="B271" s="9" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C271" s="9" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D271" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E271" s="9" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F271" s="9" t="s">
         <v>16</v>
@@ -10899,7 +10892,7 @@
         <v>13</v>
       </c>
       <c r="H271" s="9" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
     </row>
     <row r="272" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10907,25 +10900,25 @@
         <v>271</v>
       </c>
       <c r="B272" s="7" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C272" s="7" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D272" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E272" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F272" s="7" t="s">
-        <v>607</v>
+        <v>16</v>
       </c>
       <c r="G272" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H272" s="7" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
     </row>
     <row r="273" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10933,16 +10926,16 @@
         <v>272</v>
       </c>
       <c r="B273" s="9" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C273" s="9" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D273" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E273" s="9" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F273" s="9" t="s">
         <v>21</v>
@@ -10951,7 +10944,7 @@
         <v>13</v>
       </c>
       <c r="H273" s="9" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
     </row>
     <row r="274" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10959,16 +10952,16 @@
         <v>273</v>
       </c>
       <c r="B274" s="7" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C274" s="7" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D274" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E274" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F274" s="7" t="s">
         <v>21</v>
@@ -10977,7 +10970,7 @@
         <v>13</v>
       </c>
       <c r="H274" s="7" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
     </row>
     <row r="275" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10985,16 +10978,16 @@
         <v>274</v>
       </c>
       <c r="B275" s="9" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C275" s="9" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D275" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E275" s="9" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F275" s="9" t="s">
         <v>24</v>
@@ -11003,7 +10996,7 @@
         <v>13</v>
       </c>
       <c r="H275" s="9" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
     </row>
     <row r="276" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11011,16 +11004,16 @@
         <v>275</v>
       </c>
       <c r="B276" s="7" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C276" s="7" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D276" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E276" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F276" s="7" t="s">
         <v>24</v>
@@ -11029,7 +11022,7 @@
         <v>13</v>
       </c>
       <c r="H276" s="7" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
     </row>
     <row r="277" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11037,16 +11030,16 @@
         <v>276</v>
       </c>
       <c r="B277" s="9" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C277" s="9" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D277" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E277" s="9" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F277" s="9" t="s">
         <v>16</v>
@@ -11055,7 +11048,7 @@
         <v>13</v>
       </c>
       <c r="H277" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="278" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11063,16 +11056,16 @@
         <v>277</v>
       </c>
       <c r="B278" s="7" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C278" s="7" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D278" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E278" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F278" s="7" t="s">
         <v>16</v>
@@ -11081,7 +11074,7 @@
         <v>13</v>
       </c>
       <c r="H278" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="279" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11089,16 +11082,16 @@
         <v>278</v>
       </c>
       <c r="B279" s="9" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C279" s="9" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D279" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E279" s="9" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F279" s="9" t="s">
         <v>21</v>
@@ -11107,7 +11100,7 @@
         <v>13</v>
       </c>
       <c r="H279" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="280" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11115,16 +11108,16 @@
         <v>279</v>
       </c>
       <c r="B280" s="7" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C280" s="7" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D280" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E280" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F280" s="7" t="s">
         <v>21</v>
@@ -11133,7 +11126,7 @@
         <v>13</v>
       </c>
       <c r="H280" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="281" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11141,16 +11134,16 @@
         <v>280</v>
       </c>
       <c r="B281" s="9" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C281" s="9" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D281" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E281" s="9" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F281" s="9" t="s">
         <v>21</v>
@@ -11159,7 +11152,7 @@
         <v>13</v>
       </c>
       <c r="H281" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="282" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11167,16 +11160,16 @@
         <v>281</v>
       </c>
       <c r="B282" s="7" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C282" s="7" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D282" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E282" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F282" s="7" t="s">
         <v>21</v>
@@ -11185,7 +11178,7 @@
         <v>13</v>
       </c>
       <c r="H282" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="283" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11193,16 +11186,16 @@
         <v>282</v>
       </c>
       <c r="B283" s="9" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C283" s="9" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D283" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E283" s="9" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F283" s="9" t="s">
         <v>16</v>
@@ -11211,7 +11204,7 @@
         <v>13</v>
       </c>
       <c r="H283" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="284" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11219,16 +11212,16 @@
         <v>283</v>
       </c>
       <c r="B284" s="7" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C284" s="7" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="D284" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E284" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F284" s="7" t="s">
         <v>21</v>
@@ -11237,7 +11230,7 @@
         <v>13</v>
       </c>
       <c r="H284" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="285" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11245,16 +11238,16 @@
         <v>284</v>
       </c>
       <c r="B285" s="9" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C285" s="9" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D285" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E285" s="9" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F285" s="9" t="s">
         <v>21</v>
@@ -11263,7 +11256,7 @@
         <v>13</v>
       </c>
       <c r="H285" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="286" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11271,16 +11264,16 @@
         <v>285</v>
       </c>
       <c r="B286" s="7" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C286" s="7" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="D286" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E286" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F286" s="7" t="s">
         <v>24</v>
@@ -11289,7 +11282,7 @@
         <v>13</v>
       </c>
       <c r="H286" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="287" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11297,16 +11290,16 @@
         <v>286</v>
       </c>
       <c r="B287" s="9" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C287" s="9" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D287" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E287" s="9" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F287" s="9" t="s">
         <v>24</v>
@@ -11315,7 +11308,7 @@
         <v>13</v>
       </c>
       <c r="H287" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="288" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11323,16 +11316,16 @@
         <v>287</v>
       </c>
       <c r="B288" s="7" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C288" s="7" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D288" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E288" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F288" s="7" t="s">
         <v>16</v>
@@ -11341,7 +11334,7 @@
         <v>13</v>
       </c>
       <c r="H288" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="289" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11349,10 +11342,10 @@
         <v>288</v>
       </c>
       <c r="B289" s="9" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C289" s="9" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D289" s="9" t="s">
         <v>10</v>
@@ -11364,10 +11357,10 @@
         <v>24</v>
       </c>
       <c r="G289" s="11" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H289" s="9" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="290" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11375,10 +11368,10 @@
         <v>289</v>
       </c>
       <c r="B290" s="7" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C290" s="7" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="D290" s="7" t="s">
         <v>10</v>
@@ -11390,10 +11383,10 @@
         <v>24</v>
       </c>
       <c r="G290" s="11" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H290" s="7" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="291" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11401,10 +11394,10 @@
         <v>290</v>
       </c>
       <c r="B291" s="9" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C291" s="9" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D291" s="9" t="s">
         <v>10</v>
@@ -11416,10 +11409,10 @@
         <v>24</v>
       </c>
       <c r="G291" s="11" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H291" s="9" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="292" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11427,10 +11420,10 @@
         <v>291</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C292" s="7" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D292" s="7" t="s">
         <v>10</v>
@@ -11442,10 +11435,10 @@
         <v>16</v>
       </c>
       <c r="G292" s="7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H292" s="7" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="293" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11453,10 +11446,10 @@
         <v>292</v>
       </c>
       <c r="B293" s="9" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C293" s="9" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D293" s="9" t="s">
         <v>10</v>
@@ -11468,10 +11461,10 @@
         <v>12</v>
       </c>
       <c r="G293" s="9" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H293" s="9" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="294" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11479,10 +11472,10 @@
         <v>293</v>
       </c>
       <c r="B294" s="7" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C294" s="7" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="D294" s="7" t="s">
         <v>10</v>
@@ -11494,10 +11487,10 @@
         <v>16</v>
       </c>
       <c r="G294" s="7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H294" s="7" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="295" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11505,10 +11498,10 @@
         <v>294</v>
       </c>
       <c r="B295" s="9" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C295" s="9" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="D295" s="9" t="s">
         <v>10</v>
@@ -11520,10 +11513,10 @@
         <v>21</v>
       </c>
       <c r="G295" s="9" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H295" s="9" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="296" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11531,10 +11524,10 @@
         <v>295</v>
       </c>
       <c r="B296" s="7" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C296" s="7" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="D296" s="7" t="s">
         <v>10</v>
@@ -11546,10 +11539,10 @@
         <v>12</v>
       </c>
       <c r="G296" s="7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H296" s="7" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="297" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11557,10 +11550,10 @@
         <v>296</v>
       </c>
       <c r="B297" s="9" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C297" s="9" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="D297" s="9" t="s">
         <v>10</v>
@@ -11572,10 +11565,10 @@
         <v>16</v>
       </c>
       <c r="G297" s="9" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H297" s="9" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="298" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11583,10 +11576,10 @@
         <v>297</v>
       </c>
       <c r="B298" s="7" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C298" s="11" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D298" s="7" t="s">
         <v>10</v>
@@ -11598,10 +11591,10 @@
         <v>21</v>
       </c>
       <c r="G298" s="11" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H298" s="11" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="299" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11609,10 +11602,10 @@
         <v>298</v>
       </c>
       <c r="B299" s="9" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C299" s="9" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="D299" s="9" t="s">
         <v>10</v>
@@ -11624,7 +11617,7 @@
         <v>16</v>
       </c>
       <c r="G299" s="9" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H299" s="9" t="s">
         <v>60</v>
@@ -11635,10 +11628,10 @@
         <v>299</v>
       </c>
       <c r="B300" s="7" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C300" s="7" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="D300" s="7" t="s">
         <v>10</v>
@@ -11650,7 +11643,7 @@
         <v>16</v>
       </c>
       <c r="G300" s="7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H300" s="7" t="s">
         <v>60</v>
@@ -11661,10 +11654,10 @@
         <v>300</v>
       </c>
       <c r="B301" s="9" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C301" s="9" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D301" s="9" t="s">
         <v>10</v>
@@ -11676,10 +11669,10 @@
         <v>16</v>
       </c>
       <c r="G301" s="11" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H301" s="9" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="302" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11687,10 +11680,10 @@
         <v>301</v>
       </c>
       <c r="B302" s="7" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C302" s="7" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="D302" s="7" t="s">
         <v>10</v>
@@ -11702,10 +11695,10 @@
         <v>24</v>
       </c>
       <c r="G302" s="7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H302" s="7" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="303" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11713,10 +11706,10 @@
         <v>302</v>
       </c>
       <c r="B303" s="9" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C303" s="9" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D303" s="9" t="s">
         <v>10</v>
@@ -11728,10 +11721,10 @@
         <v>24</v>
       </c>
       <c r="G303" s="9" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H303" s="9" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="304" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11739,10 +11732,10 @@
         <v>303</v>
       </c>
       <c r="B304" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C304" s="7" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="D304" s="7" t="s">
         <v>10</v>
@@ -11754,10 +11747,10 @@
         <v>24</v>
       </c>
       <c r="G304" s="11" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H304" s="7" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="305" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11765,10 +11758,10 @@
         <v>304</v>
       </c>
       <c r="B305" s="9" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C305" s="9" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="D305" s="9" t="s">
         <v>10</v>
@@ -11780,10 +11773,10 @@
         <v>16</v>
       </c>
       <c r="G305" s="11" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H305" s="9" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="306" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11791,10 +11784,10 @@
         <v>305</v>
       </c>
       <c r="B306" s="7" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C306" s="7" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="D306" s="7" t="s">
         <v>10</v>
@@ -11806,10 +11799,10 @@
         <v>21</v>
       </c>
       <c r="G306" s="7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H306" s="7" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="307" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11817,10 +11810,10 @@
         <v>306</v>
       </c>
       <c r="B307" s="9" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C307" s="9" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="D307" s="9" t="s">
         <v>10</v>
@@ -11832,7 +11825,7 @@
         <v>16</v>
       </c>
       <c r="G307" s="9" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H307" s="9" t="s">
         <v>132</v>
@@ -11843,10 +11836,10 @@
         <v>307</v>
       </c>
       <c r="B308" s="7" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="C308" s="7" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="D308" s="7" t="s">
         <v>10</v>
@@ -11858,10 +11851,10 @@
         <v>24</v>
       </c>
       <c r="G308" s="7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H308" s="7" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="309" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11869,10 +11862,10 @@
         <v>308</v>
       </c>
       <c r="B309" s="9" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C309" s="9" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D309" s="9" t="s">
         <v>10</v>
@@ -11884,10 +11877,10 @@
         <v>21</v>
       </c>
       <c r="G309" s="9" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H309" s="9" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
     </row>
     <row r="310" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11895,10 +11888,10 @@
         <v>309</v>
       </c>
       <c r="B310" s="7" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="C310" s="7" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D310" s="7" t="s">
         <v>10</v>
@@ -11910,10 +11903,10 @@
         <v>24</v>
       </c>
       <c r="G310" s="7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H310" s="7" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="311" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11921,10 +11914,10 @@
         <v>310</v>
       </c>
       <c r="B311" s="9" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C311" s="9" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="D311" s="9" t="s">
         <v>10</v>
@@ -11936,7 +11929,7 @@
         <v>16</v>
       </c>
       <c r="G311" s="9" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H311" s="9" t="s">
         <v>214</v>
@@ -11947,10 +11940,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="7" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C312" s="7" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="D312" s="7" t="s">
         <v>10</v>
@@ -11962,7 +11955,7 @@
         <v>12</v>
       </c>
       <c r="G312" s="7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H312" s="7" t="s">
         <v>143</v>
@@ -11973,10 +11966,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="9" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="C313" s="9" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="D313" s="9" t="s">
         <v>10</v>
@@ -11988,7 +11981,7 @@
         <v>24</v>
       </c>
       <c r="G313" s="9" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H313" s="9" t="s">
         <v>143</v>
@@ -11999,10 +11992,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="7" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C314" s="7" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="D314" s="7" t="s">
         <v>10</v>
@@ -12014,7 +12007,7 @@
         <v>21</v>
       </c>
       <c r="G314" s="7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H314" s="7" t="s">
         <v>143</v>
@@ -12025,10 +12018,10 @@
         <v>314</v>
       </c>
       <c r="B315" s="9" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C315" s="9" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="D315" s="9" t="s">
         <v>10</v>
@@ -12040,10 +12033,10 @@
         <v>21</v>
       </c>
       <c r="G315" s="9" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H315" s="9" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
     </row>
     <row r="316" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12051,10 +12044,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="7" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="C316" s="7" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="D316" s="7" t="s">
         <v>10</v>
@@ -12066,7 +12059,7 @@
         <v>12</v>
       </c>
       <c r="G316" s="11" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H316" s="7" t="s">
         <v>132</v>
@@ -12077,10 +12070,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="9" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C317" s="9" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="D317" s="9" t="s">
         <v>10</v>
@@ -12092,10 +12085,10 @@
         <v>16</v>
       </c>
       <c r="G317" s="9" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H317" s="9" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="318" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12103,10 +12096,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="7" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="C318" s="7" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="D318" s="7" t="s">
         <v>10</v>
@@ -12118,7 +12111,7 @@
         <v>16</v>
       </c>
       <c r="G318" s="7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H318" s="7" t="s">
         <v>132</v>
@@ -12129,10 +12122,10 @@
         <v>318</v>
       </c>
       <c r="B319" s="9" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="C319" s="9" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="D319" s="9" t="s">
         <v>10</v>
@@ -12144,7 +12137,7 @@
         <v>21</v>
       </c>
       <c r="G319" s="9" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H319" s="9" t="s">
         <v>132</v>
@@ -12155,10 +12148,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="7" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="C320" s="7" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="D320" s="7" t="s">
         <v>10</v>
@@ -12170,7 +12163,7 @@
         <v>24</v>
       </c>
       <c r="G320" s="7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H320" s="7" t="s">
         <v>132</v>
@@ -12181,10 +12174,10 @@
         <v>320</v>
       </c>
       <c r="B321" s="9" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C321" s="9" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="D321" s="9" t="s">
         <v>10</v>
@@ -12196,7 +12189,7 @@
         <v>24</v>
       </c>
       <c r="G321" s="9" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H321" s="9" t="s">
         <v>132</v>
@@ -12207,10 +12200,10 @@
         <v>321</v>
       </c>
       <c r="B322" s="7" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="C322" s="7" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="D322" s="7" t="s">
         <v>10</v>
@@ -12222,7 +12215,7 @@
         <v>16</v>
       </c>
       <c r="G322" s="7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H322" s="7" t="s">
         <v>132</v>
@@ -12233,10 +12226,10 @@
         <v>322</v>
       </c>
       <c r="B323" s="9" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="C323" s="9" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D323" s="9" t="s">
         <v>10</v>
@@ -12248,10 +12241,10 @@
         <v>12</v>
       </c>
       <c r="G323" s="9" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H323" s="9" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="324" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12259,10 +12252,10 @@
         <v>323</v>
       </c>
       <c r="B324" s="7" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C324" s="7" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="D324" s="7" t="s">
         <v>10</v>
@@ -12274,10 +12267,10 @@
         <v>12</v>
       </c>
       <c r="G324" s="11" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H324" s="7" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="325" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12285,10 +12278,10 @@
         <v>324</v>
       </c>
       <c r="B325" s="9" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="C325" s="9" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="D325" s="9" t="s">
         <v>10</v>
@@ -12300,10 +12293,10 @@
         <v>12</v>
       </c>
       <c r="G325" s="11" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H325" s="9" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="326" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12311,10 +12304,10 @@
         <v>325</v>
       </c>
       <c r="B326" s="7" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="C326" s="7" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="D326" s="7" t="s">
         <v>10</v>
@@ -12326,10 +12319,10 @@
         <v>12</v>
       </c>
       <c r="G326" s="11" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H326" s="7" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="327" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12337,10 +12330,10 @@
         <v>326</v>
       </c>
       <c r="B327" s="9" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="C327" s="9" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="D327" s="9" t="s">
         <v>10</v>
@@ -12352,10 +12345,10 @@
         <v>21</v>
       </c>
       <c r="G327" s="11" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H327" s="9" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="328" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12363,10 +12356,10 @@
         <v>327</v>
       </c>
       <c r="B328" s="7" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C328" s="7" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="D328" s="7" t="s">
         <v>10</v>
@@ -12378,10 +12371,10 @@
         <v>16</v>
       </c>
       <c r="G328" s="7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H328" s="7" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="329" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12389,10 +12382,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="9" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="C329" s="9" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="D329" s="9" t="s">
         <v>10</v>
@@ -12404,10 +12397,10 @@
         <v>16</v>
       </c>
       <c r="G329" s="9" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H329" s="9" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="330" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12415,10 +12408,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="7" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C330" s="7" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D330" s="7" t="s">
         <v>10</v>
@@ -12430,7 +12423,7 @@
         <v>21</v>
       </c>
       <c r="G330" s="7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H330" s="7" t="s">
         <v>132</v>
@@ -12441,10 +12434,10 @@
         <v>330</v>
       </c>
       <c r="B331" s="9" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C331" s="9" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D331" s="9" t="s">
         <v>225</v>
@@ -12456,7 +12449,7 @@
         <v>16</v>
       </c>
       <c r="G331" s="11" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H331" s="9" t="s">
         <v>214</v>
@@ -12467,10 +12460,10 @@
         <v>331</v>
       </c>
       <c r="B332" s="7" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="C332" s="7" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="D332" s="7" t="s">
         <v>225</v>
@@ -12482,10 +12475,10 @@
         <v>16</v>
       </c>
       <c r="G332" s="11" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H332" s="7" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
     </row>
     <row r="333" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12493,10 +12486,10 @@
         <v>332</v>
       </c>
       <c r="B333" s="9" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="C333" s="9" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D333" s="9" t="s">
         <v>225</v>
@@ -12508,10 +12501,10 @@
         <v>12</v>
       </c>
       <c r="G333" s="11" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H333" s="9" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
     </row>
     <row r="334" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12519,10 +12512,10 @@
         <v>333</v>
       </c>
       <c r="B334" s="7" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="C334" s="7" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="D334" s="7" t="s">
         <v>225</v>
@@ -12534,7 +12527,7 @@
         <v>16</v>
       </c>
       <c r="G334" s="11" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H334" s="7" t="s">
         <v>214</v>
@@ -12545,10 +12538,10 @@
         <v>334</v>
       </c>
       <c r="B335" s="9" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="C335" s="9" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="D335" s="9" t="s">
         <v>225</v>
@@ -12560,10 +12553,10 @@
         <v>12</v>
       </c>
       <c r="G335" s="11" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H335" s="9" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
     </row>
     <row r="336" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12571,10 +12564,10 @@
         <v>335</v>
       </c>
       <c r="B336" s="7" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="C336" s="7" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="D336" s="7" t="s">
         <v>225</v>
@@ -12586,10 +12579,10 @@
         <v>12</v>
       </c>
       <c r="G336" s="7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H336" s="7" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
     </row>
     <row r="337" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12597,10 +12590,10 @@
         <v>336</v>
       </c>
       <c r="B337" s="9" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="C337" s="9" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D337" s="9" t="s">
         <v>225</v>
@@ -12612,10 +12605,10 @@
         <v>16</v>
       </c>
       <c r="G337" s="9" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H337" s="9" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
     </row>
     <row r="338" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12623,10 +12616,10 @@
         <v>337</v>
       </c>
       <c r="B338" s="7" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C338" s="7" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="D338" s="7" t="s">
         <v>225</v>
@@ -12638,10 +12631,10 @@
         <v>24</v>
       </c>
       <c r="G338" s="7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H338" s="7" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
     </row>
     <row r="339" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12649,10 +12642,10 @@
         <v>338</v>
       </c>
       <c r="B339" s="9" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="C339" s="9" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="D339" s="9" t="s">
         <v>225</v>
@@ -12660,14 +12653,14 @@
       <c r="E339" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="F339" s="9" t="s">
-        <v>262</v>
+      <c r="F339" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="G339" s="9" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H339" s="9" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
     </row>
     <row r="340" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12675,10 +12668,10 @@
         <v>339</v>
       </c>
       <c r="B340" s="7" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="C340" s="7" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="D340" s="7" t="s">
         <v>225</v>
@@ -12690,10 +12683,10 @@
         <v>24</v>
       </c>
       <c r="G340" s="7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H340" s="7" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
     </row>
     <row r="341" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12701,25 +12694,25 @@
         <v>340</v>
       </c>
       <c r="B341" s="9" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="C341" s="9" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="D341" s="9" t="s">
         <v>225</v>
       </c>
       <c r="E341" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F341" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G341" s="9" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H341" s="9" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="342" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12727,25 +12720,25 @@
         <v>341</v>
       </c>
       <c r="B342" s="7" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C342" s="7" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="D342" s="7" t="s">
         <v>225</v>
       </c>
       <c r="E342" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F342" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G342" s="7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H342" s="7" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
     </row>
     <row r="343" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12753,25 +12746,25 @@
         <v>342</v>
       </c>
       <c r="B343" s="9" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="C343" s="9" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="D343" s="9" t="s">
         <v>225</v>
       </c>
       <c r="E343" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F343" s="9" t="s">
         <v>21</v>
       </c>
       <c r="G343" s="9" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H343" s="9" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
     </row>
     <row r="344" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12779,25 +12772,25 @@
         <v>343</v>
       </c>
       <c r="B344" s="7" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="C344" s="7" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="D344" s="7" t="s">
         <v>225</v>
       </c>
       <c r="E344" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F344" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G344" s="7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H344" s="7" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
     </row>
     <row r="345" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12805,25 +12798,25 @@
         <v>344</v>
       </c>
       <c r="B345" s="9" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="C345" s="9" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D345" s="9" t="s">
         <v>225</v>
       </c>
       <c r="E345" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F345" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G345" s="9" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H345" s="9" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
     </row>
     <row r="346" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12831,25 +12824,25 @@
         <v>345</v>
       </c>
       <c r="B346" s="7" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="C346" s="7" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="D346" s="7" t="s">
         <v>225</v>
       </c>
       <c r="E346" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F346" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G346" s="7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H346" s="7" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
     </row>
     <row r="347" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12857,25 +12850,25 @@
         <v>346</v>
       </c>
       <c r="B347" s="9" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="C347" s="9" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="D347" s="9" t="s">
         <v>225</v>
       </c>
       <c r="E347" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F347" s="9" t="s">
         <v>21</v>
       </c>
       <c r="G347" s="9" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H347" s="9" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
     </row>
     <row r="348" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12883,22 +12876,22 @@
         <v>347</v>
       </c>
       <c r="B348" s="7" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C348" s="7" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="D348" s="7" t="s">
         <v>225</v>
       </c>
       <c r="E348" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F348" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G348" s="7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H348" s="7" t="s">
         <v>172</v>
@@ -12909,25 +12902,25 @@
         <v>348</v>
       </c>
       <c r="B349" s="9" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C349" s="9" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="D349" s="9" t="s">
         <v>225</v>
       </c>
       <c r="E349" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F349" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G349" s="9" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H349" s="9" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="350" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12935,25 +12928,25 @@
         <v>349</v>
       </c>
       <c r="B350" s="7" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C350" s="7" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="D350" s="7" t="s">
         <v>225</v>
       </c>
       <c r="E350" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F350" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G350" s="7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H350" s="7" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="351" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12961,25 +12954,25 @@
         <v>350</v>
       </c>
       <c r="B351" s="9" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="C351" s="9" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="D351" s="9" t="s">
         <v>225</v>
       </c>
       <c r="E351" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F351" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G351" s="9" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H351" s="9" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="352" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12987,25 +12980,25 @@
         <v>351</v>
       </c>
       <c r="B352" s="7" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C352" s="7" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="D352" s="7" t="s">
         <v>225</v>
       </c>
       <c r="E352" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F352" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G352" s="7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H352" s="7" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="353" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13013,25 +13006,25 @@
         <v>352</v>
       </c>
       <c r="B353" s="9" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="C353" s="9" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="D353" s="9" t="s">
         <v>225</v>
       </c>
       <c r="E353" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F353" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G353" s="9" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H353" s="9" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="354" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13039,22 +13032,22 @@
         <v>353</v>
       </c>
       <c r="B354" s="7" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="C354" s="7" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="D354" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E354" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F354" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G354" s="11" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H354" s="7" t="s">
         <v>60</v>
@@ -13065,22 +13058,22 @@
         <v>354</v>
       </c>
       <c r="B355" s="9" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="C355" s="9" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="D355" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E355" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F355" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G355" s="9" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H355" s="9" t="s">
         <v>60</v>
@@ -13091,22 +13084,22 @@
         <v>355</v>
       </c>
       <c r="B356" s="7" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="C356" s="7" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="D356" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E356" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F356" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G356" s="7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H356" s="7" t="s">
         <v>60</v>
@@ -13117,22 +13110,22 @@
         <v>356</v>
       </c>
       <c r="B357" s="9" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="C357" s="9" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="D357" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E357" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F357" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G357" s="9" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H357" s="9" t="s">
         <v>60</v>
@@ -13143,22 +13136,22 @@
         <v>357</v>
       </c>
       <c r="B358" s="7" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="C358" s="7" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="D358" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E358" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F358" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G358" s="7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H358" s="7" t="s">
         <v>60</v>
@@ -13169,22 +13162,22 @@
         <v>358</v>
       </c>
       <c r="B359" s="9" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C359" s="9" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D359" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E359" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F359" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G359" s="9" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H359" s="9" t="s">
         <v>60</v>
@@ -13195,22 +13188,22 @@
         <v>359</v>
       </c>
       <c r="B360" s="7" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C360" s="7" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="D360" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E360" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F360" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G360" s="7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H360" s="7" t="s">
         <v>132</v>
@@ -13221,25 +13214,25 @@
         <v>360</v>
       </c>
       <c r="B361" s="9" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C361" s="9" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="D361" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E361" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F361" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G361" s="9" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H361" s="9" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="362" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13247,22 +13240,22 @@
         <v>361</v>
       </c>
       <c r="B362" s="7" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C362" s="7" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="D362" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E362" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F362" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G362" s="7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H362" s="7" t="s">
         <v>214</v>
@@ -13273,22 +13266,22 @@
         <v>362</v>
       </c>
       <c r="B363" s="9" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C363" s="9" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="D363" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E363" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F363" s="9" t="s">
         <v>21</v>
       </c>
       <c r="G363" s="9" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H363" s="9" t="s">
         <v>172</v>
@@ -13299,22 +13292,22 @@
         <v>363</v>
       </c>
       <c r="B364" s="7" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="C364" s="7" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="D364" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E364" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F364" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G364" s="7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H364" s="7" t="s">
         <v>172</v>
@@ -13325,25 +13318,25 @@
         <v>364</v>
       </c>
       <c r="B365" s="9" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C365" s="9" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="D365" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E365" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F365" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G365" s="9" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H365" s="9" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="366" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13351,25 +13344,25 @@
         <v>365</v>
       </c>
       <c r="B366" s="7" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C366" s="7" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="D366" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E366" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F366" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G366" s="7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H366" s="7" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="367" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13377,25 +13370,25 @@
         <v>366</v>
       </c>
       <c r="B367" s="9" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C367" s="9" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="D367" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E367" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F367" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G367" s="9" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H367" s="9" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="368" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13403,25 +13396,25 @@
         <v>367</v>
       </c>
       <c r="B368" s="7" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C368" s="7" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="D368" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E368" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F368" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G368" s="7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H368" s="7" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="369" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13429,25 +13422,25 @@
         <v>368</v>
       </c>
       <c r="B369" s="9" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="C369" s="9" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="D369" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E369" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F369" s="9" t="s">
         <v>21</v>
       </c>
       <c r="G369" s="9" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H369" s="9" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="370" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13455,25 +13448,25 @@
         <v>369</v>
       </c>
       <c r="B370" s="7" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="C370" s="7" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="D370" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E370" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F370" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G370" s="7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H370" s="7" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="371" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13481,25 +13474,25 @@
         <v>370</v>
       </c>
       <c r="B371" s="9" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="C371" s="9" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="D371" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E371" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F371" s="9" t="s">
         <v>21</v>
       </c>
       <c r="G371" s="9" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H371" s="9" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="372" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13507,22 +13500,22 @@
         <v>371</v>
       </c>
       <c r="B372" s="7" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="C372" s="7" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="D372" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E372" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F372" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G372" s="7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H372" s="7" t="s">
         <v>132</v>
@@ -13533,22 +13526,22 @@
         <v>372</v>
       </c>
       <c r="B373" s="9" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="C373" s="9" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="D373" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E373" s="9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F373" s="9" t="s">
         <v>21</v>
       </c>
       <c r="G373" s="9" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H373" s="9" t="s">
         <v>132</v>
@@ -13559,22 +13552,22 @@
         <v>373</v>
       </c>
       <c r="B374" s="7" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="C374" s="7" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="D374" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E374" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F374" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G374" s="7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H374" s="7" t="s">
         <v>132</v>
@@ -13585,25 +13578,25 @@
         <v>374</v>
       </c>
       <c r="B375" s="9" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="C375" s="11" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="D375" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E375" s="9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F375" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G375" s="9" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H375" s="9" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="376" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13611,22 +13604,22 @@
         <v>375</v>
       </c>
       <c r="B376" s="7" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="C376" s="7" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="D376" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E376" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F376" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G376" s="7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H376" s="7" t="s">
         <v>132</v>
@@ -13637,22 +13630,22 @@
         <v>376</v>
       </c>
       <c r="B377" s="9" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="C377" s="9" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="D377" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E377" s="9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F377" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G377" s="9" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H377" s="9" t="s">
         <v>132</v>
@@ -13663,22 +13656,22 @@
         <v>377</v>
       </c>
       <c r="B378" s="7" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="C378" s="7" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="D378" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E378" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F378" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G378" s="7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H378" s="7" t="s">
         <v>132</v>
@@ -13689,25 +13682,25 @@
         <v>378</v>
       </c>
       <c r="B379" s="9" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C379" s="9" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="D379" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E379" s="9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F379" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G379" s="9" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H379" s="9" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="380" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13715,25 +13708,25 @@
         <v>379</v>
       </c>
       <c r="B380" s="7" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="C380" s="7" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="D380" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E380" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F380" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G380" s="7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H380" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="381" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13741,25 +13734,25 @@
         <v>380</v>
       </c>
       <c r="B381" s="9" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="C381" s="9" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="D381" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E381" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F381" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G381" s="9" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H381" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="382" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13767,25 +13760,25 @@
         <v>381</v>
       </c>
       <c r="B382" s="7" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="C382" s="7" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="D382" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E382" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F382" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G382" s="7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H382" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="383" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13793,25 +13786,25 @@
         <v>382</v>
       </c>
       <c r="B383" s="9" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="C383" s="9" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="D383" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E383" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F383" s="9" t="s">
         <v>21</v>
       </c>
       <c r="G383" s="9" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H383" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="384" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13819,25 +13812,25 @@
         <v>383</v>
       </c>
       <c r="B384" s="7" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="C384" s="7" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="D384" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E384" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F384" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G384" s="7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H384" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="385" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13845,25 +13838,25 @@
         <v>384</v>
       </c>
       <c r="B385" s="9" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="C385" s="9" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="D385" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E385" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F385" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G385" s="9" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H385" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="386" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13871,25 +13864,25 @@
         <v>385</v>
       </c>
       <c r="B386" s="7" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="C386" s="7" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="D386" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E386" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F386" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G386" s="7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H386" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="387" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13897,25 +13890,25 @@
         <v>386</v>
       </c>
       <c r="B387" s="9" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C387" s="9" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="D387" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E387" s="9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F387" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G387" s="9" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H387" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="388" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13923,25 +13916,25 @@
         <v>387</v>
       </c>
       <c r="B388" s="7" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="C388" s="7" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="D388" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E388" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F388" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G388" s="7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H388" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="389" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13949,25 +13942,25 @@
         <v>388</v>
       </c>
       <c r="B389" s="9" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="C389" s="9" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="D389" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E389" s="9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F389" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G389" s="11" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H389" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="390" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13975,25 +13968,25 @@
         <v>389</v>
       </c>
       <c r="B390" s="7" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="C390" s="7" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="D390" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E390" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F390" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G390" s="7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H390" s="7" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
     </row>
     <row r="391" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14001,22 +13994,22 @@
         <v>390</v>
       </c>
       <c r="B391" s="9" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="C391" s="9" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="D391" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E391" s="9" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F391" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G391" s="9" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H391" s="9" t="s">
         <v>60</v>
@@ -14027,22 +14020,22 @@
         <v>391</v>
       </c>
       <c r="B392" s="7" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="C392" s="7" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="D392" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E392" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F392" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G392" s="7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H392" s="7" t="s">
         <v>60</v>
@@ -14053,22 +14046,22 @@
         <v>392</v>
       </c>
       <c r="B393" s="9" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="C393" s="9" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="D393" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E393" s="9" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F393" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G393" s="9" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H393" s="9" t="s">
         <v>60</v>
@@ -14079,22 +14072,22 @@
         <v>393</v>
       </c>
       <c r="B394" s="7" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="C394" s="7" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="D394" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E394" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F394" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G394" s="7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H394" s="7" t="s">
         <v>60</v>
@@ -14105,22 +14098,22 @@
         <v>394</v>
       </c>
       <c r="B395" s="9" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="C395" s="9" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D395" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E395" s="9" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F395" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G395" s="9" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H395" s="9" t="s">
         <v>60</v>
@@ -14131,10 +14124,10 @@
         <v>395</v>
       </c>
       <c r="B396" s="7" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="C396" s="7" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="D396" s="7" t="s">
         <v>10</v>
@@ -14146,10 +14139,10 @@
         <v>12</v>
       </c>
       <c r="G396" s="7" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="H396" s="7" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="397" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14157,10 +14150,10 @@
         <v>396</v>
       </c>
       <c r="B397" s="9" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="C397" s="9" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="D397" s="9" t="s">
         <v>10</v>
@@ -14172,10 +14165,10 @@
         <v>12</v>
       </c>
       <c r="G397" s="9" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="H397" s="9" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="398" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14183,10 +14176,10 @@
         <v>397</v>
       </c>
       <c r="B398" s="7" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="C398" s="7" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="D398" s="7" t="s">
         <v>10</v>
@@ -14198,10 +14191,10 @@
         <v>16</v>
       </c>
       <c r="G398" s="7" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="H398" s="7" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="399" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14209,10 +14202,10 @@
         <v>398</v>
       </c>
       <c r="B399" s="9" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="C399" s="9" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="D399" s="9" t="s">
         <v>10</v>
@@ -14224,10 +14217,10 @@
         <v>12</v>
       </c>
       <c r="G399" s="9" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="H399" s="9" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="400" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14235,10 +14228,10 @@
         <v>399</v>
       </c>
       <c r="B400" s="7" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="C400" s="7" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="D400" s="7" t="s">
         <v>10</v>
@@ -14250,10 +14243,10 @@
         <v>12</v>
       </c>
       <c r="G400" s="7" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="H400" s="7" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="401" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14261,10 +14254,10 @@
         <v>400</v>
       </c>
       <c r="B401" s="9" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="C401" s="9" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="D401" s="9" t="s">
         <v>10</v>
@@ -14276,10 +14269,10 @@
         <v>16</v>
       </c>
       <c r="G401" s="9" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="H401" s="9" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="402" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14287,10 +14280,10 @@
         <v>401</v>
       </c>
       <c r="B402" s="7" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="C402" s="7" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="D402" s="7" t="s">
         <v>10</v>
@@ -14302,10 +14295,10 @@
         <v>12</v>
       </c>
       <c r="G402" s="7" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="H402" s="7" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="403" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14313,10 +14306,10 @@
         <v>402</v>
       </c>
       <c r="B403" s="9" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="C403" s="9" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="D403" s="9" t="s">
         <v>10</v>
@@ -14328,10 +14321,10 @@
         <v>12</v>
       </c>
       <c r="G403" s="9" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="H403" s="9" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="404" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14339,10 +14332,10 @@
         <v>403</v>
       </c>
       <c r="B404" s="7" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="C404" s="7" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="D404" s="7" t="s">
         <v>10</v>
@@ -14354,7 +14347,7 @@
         <v>12</v>
       </c>
       <c r="G404" s="7" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="H404" s="7" t="s">
         <v>60</v>
@@ -14365,10 +14358,10 @@
         <v>404</v>
       </c>
       <c r="B405" s="9" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="C405" s="9" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="D405" s="9" t="s">
         <v>10</v>
@@ -14380,7 +14373,7 @@
         <v>21</v>
       </c>
       <c r="G405" s="9" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="H405" s="9" t="s">
         <v>60</v>
@@ -14391,10 +14384,10 @@
         <v>405</v>
       </c>
       <c r="B406" s="7" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="C406" s="7" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="D406" s="7" t="s">
         <v>10</v>
@@ -14406,7 +14399,7 @@
         <v>24</v>
       </c>
       <c r="G406" s="7" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="H406" s="7" t="s">
         <v>60</v>
@@ -14417,10 +14410,10 @@
         <v>406</v>
       </c>
       <c r="B407" s="9" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="C407" s="9" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="D407" s="9" t="s">
         <v>10</v>
@@ -14432,7 +14425,7 @@
         <v>21</v>
       </c>
       <c r="G407" s="9" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="H407" s="9" t="s">
         <v>60</v>
@@ -14443,10 +14436,10 @@
         <v>407</v>
       </c>
       <c r="B408" s="7" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="C408" s="7" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="D408" s="7" t="s">
         <v>10</v>
@@ -14458,10 +14451,10 @@
         <v>12</v>
       </c>
       <c r="G408" s="12" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="H408" s="7" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="409" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14469,10 +14462,10 @@
         <v>408</v>
       </c>
       <c r="B409" s="9" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="C409" s="9" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="D409" s="9" t="s">
         <v>10</v>
@@ -14484,10 +14477,10 @@
         <v>16</v>
       </c>
       <c r="G409" s="9" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="H409" s="9" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="410" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14495,10 +14488,10 @@
         <v>409</v>
       </c>
       <c r="B410" s="7" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="C410" s="7" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="D410" s="7" t="s">
         <v>10</v>
@@ -14510,10 +14503,10 @@
         <v>12</v>
       </c>
       <c r="G410" s="7" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="H410" s="7" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="411" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14521,10 +14514,10 @@
         <v>410</v>
       </c>
       <c r="B411" s="9" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="C411" s="9" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="D411" s="9" t="s">
         <v>10</v>
@@ -14536,10 +14529,10 @@
         <v>12</v>
       </c>
       <c r="G411" s="9" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="H411" s="9" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="412" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14547,10 +14540,10 @@
         <v>411</v>
       </c>
       <c r="B412" s="7" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="C412" s="7" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="D412" s="7" t="s">
         <v>10</v>
@@ -14562,10 +14555,10 @@
         <v>21</v>
       </c>
       <c r="G412" s="7" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="H412" s="7" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="413" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14573,10 +14566,10 @@
         <v>412</v>
       </c>
       <c r="B413" s="9" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="C413" s="9" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="D413" s="9" t="s">
         <v>10</v>
@@ -14588,10 +14581,10 @@
         <v>21</v>
       </c>
       <c r="G413" s="9" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="H413" s="9" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="414" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14599,10 +14592,10 @@
         <v>413</v>
       </c>
       <c r="B414" s="7" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="C414" s="7" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="D414" s="7" t="s">
         <v>10</v>
@@ -14614,10 +14607,10 @@
         <v>24</v>
       </c>
       <c r="G414" s="7" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="H414" s="7" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="415" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14625,10 +14618,10 @@
         <v>414</v>
       </c>
       <c r="B415" s="9" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="C415" s="9" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="D415" s="9" t="s">
         <v>10</v>
@@ -14640,10 +14633,10 @@
         <v>24</v>
       </c>
       <c r="G415" s="9" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="H415" s="9" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="416" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14651,10 +14644,10 @@
         <v>415</v>
       </c>
       <c r="B416" s="7" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C416" s="7" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D416" s="7" t="s">
         <v>10</v>
@@ -14666,10 +14659,10 @@
         <v>24</v>
       </c>
       <c r="G416" s="7" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="H416" s="7" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="417" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14677,10 +14670,10 @@
         <v>416</v>
       </c>
       <c r="B417" s="9" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="C417" s="9" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="D417" s="9" t="s">
         <v>10</v>
@@ -14692,10 +14685,10 @@
         <v>16</v>
       </c>
       <c r="G417" s="9" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="H417" s="9" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
     </row>
     <row r="418" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14703,10 +14696,10 @@
         <v>417</v>
       </c>
       <c r="B418" s="7" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="C418" s="7" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="D418" s="7" t="s">
         <v>10</v>
@@ -14718,7 +14711,7 @@
         <v>16</v>
       </c>
       <c r="G418" s="7" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="H418" s="7" t="s">
         <v>132</v>
@@ -14729,10 +14722,10 @@
         <v>418</v>
       </c>
       <c r="B419" s="9" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="C419" s="9" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="D419" s="9" t="s">
         <v>10</v>
@@ -14744,10 +14737,10 @@
         <v>16</v>
       </c>
       <c r="G419" s="9" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="H419" s="9" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="420" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14755,10 +14748,10 @@
         <v>419</v>
       </c>
       <c r="B420" s="7" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="C420" s="7" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="D420" s="7" t="s">
         <v>10</v>
@@ -14770,7 +14763,7 @@
         <v>16</v>
       </c>
       <c r="G420" s="7" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="H420" s="7" t="s">
         <v>132</v>
@@ -14781,10 +14774,10 @@
         <v>420</v>
       </c>
       <c r="B421" s="9" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="C421" s="9" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="D421" s="9" t="s">
         <v>10</v>
@@ -14796,10 +14789,10 @@
         <v>21</v>
       </c>
       <c r="G421" s="9" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="H421" s="9" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="422" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14807,10 +14800,10 @@
         <v>421</v>
       </c>
       <c r="B422" s="7" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="C422" s="7" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D422" s="7" t="s">
         <v>10</v>
@@ -14822,10 +14815,10 @@
         <v>16</v>
       </c>
       <c r="G422" s="7" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="H422" s="7" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="423" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14833,10 +14826,10 @@
         <v>422</v>
       </c>
       <c r="B423" s="9" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="C423" s="9" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="D423" s="9" t="s">
         <v>225</v>
@@ -14848,10 +14841,10 @@
         <v>21</v>
       </c>
       <c r="G423" s="9" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="H423" s="9" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="424" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14859,10 +14852,10 @@
         <v>423</v>
       </c>
       <c r="B424" s="7" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="C424" s="7" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="D424" s="7" t="s">
         <v>225</v>
@@ -14874,10 +14867,10 @@
         <v>21</v>
       </c>
       <c r="G424" s="12" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="H424" s="7" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
     </row>
     <row r="425" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14885,10 +14878,10 @@
         <v>424</v>
       </c>
       <c r="B425" s="9" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="C425" s="9" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="D425" s="9" t="s">
         <v>225</v>
@@ -14900,10 +14893,10 @@
         <v>12</v>
       </c>
       <c r="G425" s="12" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="H425" s="9" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
     </row>
     <row r="426" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14911,10 +14904,10 @@
         <v>425</v>
       </c>
       <c r="B426" s="7" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="C426" s="7" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="D426" s="7" t="s">
         <v>225</v>
@@ -14926,10 +14919,10 @@
         <v>16</v>
       </c>
       <c r="G426" s="7" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="H426" s="7" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
     </row>
     <row r="427" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14937,10 +14930,10 @@
         <v>426</v>
       </c>
       <c r="B427" s="9" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="C427" s="9" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="D427" s="9" t="s">
         <v>225</v>
@@ -14952,10 +14945,10 @@
         <v>16</v>
       </c>
       <c r="G427" s="9" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="H427" s="9" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
     </row>
     <row r="428" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14963,25 +14956,25 @@
         <v>427</v>
       </c>
       <c r="B428" s="7" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="C428" s="7" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="D428" s="7" t="s">
         <v>225</v>
       </c>
       <c r="E428" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F428" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G428" s="12" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="H428" s="7" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
     </row>
     <row r="429" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14989,25 +14982,25 @@
         <v>428</v>
       </c>
       <c r="B429" s="9" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="C429" s="9" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="D429" s="9" t="s">
         <v>225</v>
       </c>
       <c r="E429" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F429" s="9" t="s">
         <v>21</v>
       </c>
       <c r="G429" s="9" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="H429" s="9" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
     </row>
     <row r="430" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15015,25 +15008,25 @@
         <v>429</v>
       </c>
       <c r="B430" s="7" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="C430" s="7" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="D430" s="7" t="s">
         <v>225</v>
       </c>
       <c r="E430" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F430" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G430" s="7" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="H430" s="7" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
     </row>
     <row r="431" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15041,25 +15034,25 @@
         <v>430</v>
       </c>
       <c r="B431" s="9" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="C431" s="9" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="D431" s="9" t="s">
         <v>225</v>
       </c>
       <c r="E431" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F431" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G431" s="12" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="H431" s="9" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
     </row>
     <row r="432" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15067,25 +15060,25 @@
         <v>431</v>
       </c>
       <c r="B432" s="7" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="C432" s="7" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="D432" s="7" t="s">
         <v>225</v>
       </c>
       <c r="E432" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F432" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G432" s="7" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="H432" s="7" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="433" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15093,25 +15086,25 @@
         <v>432</v>
       </c>
       <c r="B433" s="9" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="C433" s="9" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="D433" s="9" t="s">
         <v>225</v>
       </c>
       <c r="E433" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F433" s="9" t="s">
         <v>21</v>
       </c>
       <c r="G433" s="9" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="H433" s="9" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="434" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15119,25 +15112,25 @@
         <v>433</v>
       </c>
       <c r="B434" s="7" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="C434" s="7" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="D434" s="7" t="s">
         <v>225</v>
       </c>
       <c r="E434" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F434" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G434" s="7" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="H434" s="7" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="435" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15145,25 +15138,25 @@
         <v>434</v>
       </c>
       <c r="B435" s="9" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="C435" s="9" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="D435" s="9" t="s">
         <v>225</v>
       </c>
       <c r="E435" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F435" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G435" s="9" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="H435" s="9" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="436" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15171,22 +15164,22 @@
         <v>435</v>
       </c>
       <c r="B436" s="13" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="C436" s="7" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="D436" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E436" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F436" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G436" s="7" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="H436" s="7" t="s">
         <v>60</v>
@@ -15198,25 +15191,25 @@
         <v>436</v>
       </c>
       <c r="B437" s="9" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="C437" s="9" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="D437" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E437" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F437" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G437" s="9" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="H437" s="9" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="I437" s="2"/>
     </row>
@@ -15225,25 +15218,25 @@
         <v>437</v>
       </c>
       <c r="B438" s="7" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="C438" s="7" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="D438" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E438" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F438" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G438" s="7" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="H438" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="I438" s="2"/>
     </row>
@@ -15252,25 +15245,25 @@
         <v>438</v>
       </c>
       <c r="B439" s="9" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="C439" s="9" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="D439" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E439" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F439" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G439" s="9" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="H439" s="9" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="440" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15278,22 +15271,22 @@
         <v>439</v>
       </c>
       <c r="B440" s="7" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="C440" s="7" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="D440" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E440" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F440" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G440" s="7" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="H440" s="7" t="s">
         <v>132</v>
@@ -15304,25 +15297,25 @@
         <v>440</v>
       </c>
       <c r="B441" s="9" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="C441" s="9" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="D441" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E441" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F441" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G441" s="9" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="H441" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="442" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15330,25 +15323,25 @@
         <v>441</v>
       </c>
       <c r="B442" s="7" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="C442" s="7" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="D442" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E442" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F442" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G442" s="7" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="H442" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="443" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15356,25 +15349,25 @@
         <v>442</v>
       </c>
       <c r="B443" s="9" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="C443" s="9" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="D443" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E443" s="9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F443" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G443" s="9" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="H443" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="444" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15382,25 +15375,25 @@
         <v>443</v>
       </c>
       <c r="B444" s="7" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="C444" s="7" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="D444" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E444" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F444" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G444" s="7" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="H444" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="445" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15408,22 +15401,22 @@
         <v>444</v>
       </c>
       <c r="B445" s="9" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="C445" s="9" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="D445" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E445" s="9" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F445" s="9" t="s">
         <v>21</v>
       </c>
       <c r="G445" s="9" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="H445" s="9" t="s">
         <v>60</v>
@@ -15434,22 +15427,22 @@
         <v>445</v>
       </c>
       <c r="B446" s="7" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="C446" s="7" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="D446" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E446" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F446" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G446" s="7" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="H446" s="7" t="s">
         <v>143</v>
@@ -15460,22 +15453,22 @@
         <v>446</v>
       </c>
       <c r="B447" s="9" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="C447" s="9" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="D447" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E447" s="9" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F447" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G447" s="9" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="H447" s="9" t="s">
         <v>132</v>
@@ -15486,22 +15479,22 @@
         <v>447</v>
       </c>
       <c r="B448" s="7" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="C448" s="7" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="D448" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E448" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F448" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G448" s="7" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="H448" s="7" t="s">
         <v>132</v>

--- a/lsdp_initiatives.xlsx
+++ b/lsdp_initiatives.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anaconda3\LSDP-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E36F7C-E0DF-4A5C-8A2F-C63FF182D976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4B82C5-2E5A-448F-B7D6-34791BD3F6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3830,7 +3830,7 @@
   <dimension ref="A1:K448"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9037,7 +9037,7 @@
         <v>416</v>
       </c>
       <c r="E200" s="7" t="s">
-        <v>456</v>
+        <v>516</v>
       </c>
       <c r="F200" s="7" t="s">
         <v>24</v>
@@ -9063,7 +9063,7 @@
         <v>416</v>
       </c>
       <c r="E201" s="9" t="s">
-        <v>456</v>
+        <v>516</v>
       </c>
       <c r="F201" s="9" t="s">
         <v>24</v>
@@ -9089,7 +9089,7 @@
         <v>416</v>
       </c>
       <c r="E202" s="7" t="s">
-        <v>456</v>
+        <v>516</v>
       </c>
       <c r="F202" s="7" t="s">
         <v>24</v>
@@ -9115,7 +9115,7 @@
         <v>416</v>
       </c>
       <c r="E203" s="9" t="s">
-        <v>456</v>
+        <v>516</v>
       </c>
       <c r="F203" s="9" t="s">
         <v>16</v>
@@ -9141,7 +9141,7 @@
         <v>416</v>
       </c>
       <c r="E204" s="7" t="s">
-        <v>456</v>
+        <v>516</v>
       </c>
       <c r="F204" s="7" t="s">
         <v>24</v>
@@ -9167,7 +9167,7 @@
         <v>416</v>
       </c>
       <c r="E205" s="9" t="s">
-        <v>456</v>
+        <v>516</v>
       </c>
       <c r="F205" s="9" t="s">
         <v>24</v>
@@ -9193,7 +9193,7 @@
         <v>416</v>
       </c>
       <c r="E206" s="7" t="s">
-        <v>456</v>
+        <v>516</v>
       </c>
       <c r="F206" s="7" t="s">
         <v>24</v>
@@ -9245,7 +9245,7 @@
         <v>416</v>
       </c>
       <c r="E208" s="7" t="s">
-        <v>456</v>
+        <v>516</v>
       </c>
       <c r="F208" s="7" t="s">
         <v>16</v>
@@ -9271,7 +9271,7 @@
         <v>416</v>
       </c>
       <c r="E209" s="9" t="s">
-        <v>456</v>
+        <v>516</v>
       </c>
       <c r="F209" s="9" t="s">
         <v>21</v>
@@ -9297,7 +9297,7 @@
         <v>416</v>
       </c>
       <c r="E210" s="7" t="s">
-        <v>456</v>
+        <v>516</v>
       </c>
       <c r="F210" s="7" t="s">
         <v>24</v>
@@ -9323,7 +9323,7 @@
         <v>416</v>
       </c>
       <c r="E211" s="9" t="s">
-        <v>456</v>
+        <v>516</v>
       </c>
       <c r="F211" s="9" t="s">
         <v>21</v>
@@ -9349,7 +9349,7 @@
         <v>416</v>
       </c>
       <c r="E212" s="7" t="s">
-        <v>456</v>
+        <v>516</v>
       </c>
       <c r="F212" s="7" t="s">
         <v>16</v>
@@ -9375,7 +9375,7 @@
         <v>416</v>
       </c>
       <c r="E213" s="9" t="s">
-        <v>456</v>
+        <v>516</v>
       </c>
       <c r="F213" s="9" t="s">
         <v>16</v>
@@ -9401,7 +9401,7 @@
         <v>416</v>
       </c>
       <c r="E214" s="7" t="s">
-        <v>456</v>
+        <v>516</v>
       </c>
       <c r="F214" s="7" t="s">
         <v>24</v>
@@ -9427,7 +9427,7 @@
         <v>416</v>
       </c>
       <c r="E215" s="9" t="s">
-        <v>456</v>
+        <v>516</v>
       </c>
       <c r="F215" s="9" t="s">
         <v>24</v>
@@ -9453,7 +9453,7 @@
         <v>416</v>
       </c>
       <c r="E216" s="7" t="s">
-        <v>456</v>
+        <v>516</v>
       </c>
       <c r="F216" s="7" t="s">
         <v>24</v>
@@ -9479,7 +9479,7 @@
         <v>416</v>
       </c>
       <c r="E217" s="9" t="s">
-        <v>456</v>
+        <v>516</v>
       </c>
       <c r="F217" s="9" t="s">
         <v>24</v>
@@ -9505,7 +9505,7 @@
         <v>416</v>
       </c>
       <c r="E218" s="7" t="s">
-        <v>456</v>
+        <v>516</v>
       </c>
       <c r="F218" s="7" t="s">
         <v>16</v>
@@ -9531,7 +9531,7 @@
         <v>416</v>
       </c>
       <c r="E219" s="9" t="s">
-        <v>456</v>
+        <v>516</v>
       </c>
       <c r="F219" s="9" t="s">
         <v>16</v>
@@ -9557,7 +9557,7 @@
         <v>416</v>
       </c>
       <c r="E220" s="7" t="s">
-        <v>456</v>
+        <v>516</v>
       </c>
       <c r="F220" s="7" t="s">
         <v>12</v>
@@ -9583,7 +9583,7 @@
         <v>416</v>
       </c>
       <c r="E221" s="9" t="s">
-        <v>456</v>
+        <v>516</v>
       </c>
       <c r="F221" s="7" t="s">
         <v>12</v>
@@ -9609,7 +9609,7 @@
         <v>416</v>
       </c>
       <c r="E222" s="7" t="s">
-        <v>456</v>
+        <v>516</v>
       </c>
       <c r="F222" s="7" t="s">
         <v>24</v>
@@ -9635,7 +9635,7 @@
         <v>416</v>
       </c>
       <c r="E223" s="9" t="s">
-        <v>456</v>
+        <v>516</v>
       </c>
       <c r="F223" s="9" t="s">
         <v>24</v>
@@ -9661,7 +9661,7 @@
         <v>416</v>
       </c>
       <c r="E224" s="7" t="s">
-        <v>456</v>
+        <v>516</v>
       </c>
       <c r="F224" s="7" t="s">
         <v>24</v>
@@ -9687,7 +9687,7 @@
         <v>416</v>
       </c>
       <c r="E225" s="9" t="s">
-        <v>456</v>
+        <v>516</v>
       </c>
       <c r="F225" s="9" t="s">
         <v>24</v>
@@ -9713,7 +9713,7 @@
         <v>416</v>
       </c>
       <c r="E226" s="7" t="s">
-        <v>456</v>
+        <v>516</v>
       </c>
       <c r="F226" s="7" t="s">
         <v>24</v>
@@ -9739,7 +9739,7 @@
         <v>416</v>
       </c>
       <c r="E227" s="9" t="s">
-        <v>456</v>
+        <v>516</v>
       </c>
       <c r="F227" s="7" t="s">
         <v>12</v>
@@ -9765,7 +9765,7 @@
         <v>416</v>
       </c>
       <c r="E228" s="7" t="s">
-        <v>456</v>
+        <v>516</v>
       </c>
       <c r="F228" s="7" t="s">
         <v>12</v>
@@ -15462,7 +15462,7 @@
         <v>416</v>
       </c>
       <c r="E447" s="9" t="s">
-        <v>456</v>
+        <v>516</v>
       </c>
       <c r="F447" s="9" t="s">
         <v>24</v>
@@ -15488,7 +15488,7 @@
         <v>416</v>
       </c>
       <c r="E448" s="7" t="s">
-        <v>456</v>
+        <v>516</v>
       </c>
       <c r="F448" s="7" t="s">
         <v>16</v>
